--- a/scraper/top_remaining_spreadsheets_states/top_remaining_WV.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_WV.xlsx
@@ -44,63 +44,63 @@
     <t>Bonus Cash</t>
   </si>
   <si>
+    <t>2019-03-12</t>
+  </si>
+  <si>
+    <t>Veterans' Cash</t>
+  </si>
+  <si>
+    <t>Quick 6</t>
+  </si>
+  <si>
+    <t>Tic Tac Toe</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>2019-02-25</t>
+  </si>
+  <si>
+    <t>SCARDEY CASH / SANTA PAWS</t>
+  </si>
+  <si>
+    <t>Big Cheese</t>
+  </si>
+  <si>
+    <t>2019-02-22</t>
+  </si>
+  <si>
+    <t>3X</t>
+  </si>
+  <si>
+    <t>$2.00 Games</t>
+  </si>
+  <si>
+    <t>High 5s</t>
+  </si>
+  <si>
+    <t>LOS MUERTOS / CASHING SNOW</t>
+  </si>
+  <si>
+    <t>Gem 7s</t>
+  </si>
+  <si>
+    <t>10 Grand</t>
+  </si>
+  <si>
+    <t>Bacon Love - Jack Cash</t>
+  </si>
+  <si>
     <t>2019-03-07</t>
   </si>
   <si>
-    <t>Veterans' Cash</t>
-  </si>
-  <si>
-    <t>2019-03-06</t>
-  </si>
-  <si>
-    <t>Quick 6</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>2019-02-25</t>
-  </si>
-  <si>
-    <t>Big Cheese</t>
-  </si>
-  <si>
-    <t>2019-02-22</t>
-  </si>
-  <si>
-    <t>Tic Tac Toe</t>
-  </si>
-  <si>
-    <t>SCARDEY CASH / SANTA PAWS</t>
-  </si>
-  <si>
-    <t>3X</t>
-  </si>
-  <si>
-    <t>$2.00 Games</t>
-  </si>
-  <si>
-    <t>High 5s</t>
-  </si>
-  <si>
-    <t>LOS MUERTOS / CASHING SNOW</t>
-  </si>
-  <si>
-    <t>Gem 7s</t>
-  </si>
-  <si>
-    <t>Bacon Love - Jack Cash</t>
-  </si>
-  <si>
-    <t>10 Grand</t>
+    <t>Keno Bullseye</t>
   </si>
   <si>
     <t>Classic Black</t>
   </si>
   <si>
-    <t>Keno Bullseye</t>
-  </si>
-  <si>
     <t>Winner Winner Chicken Dinner</t>
   </si>
   <si>
@@ -164,18 +164,18 @@
     <t>VIVA LAS KENO 1005</t>
   </si>
   <si>
+    <t>Jumbo Jack</t>
+  </si>
+  <si>
+    <t>PAC-MAN® &amp; Ms. PAC-MAN®</t>
+  </si>
+  <si>
+    <t>Loaded</t>
+  </si>
+  <si>
     <t>$40 GRAND</t>
   </si>
   <si>
-    <t>Jumbo Jack</t>
-  </si>
-  <si>
-    <t>Loaded</t>
-  </si>
-  <si>
-    <t>PAC-MAN® &amp; Ms. PAC-MAN®</t>
-  </si>
-  <si>
     <t>More Money</t>
   </si>
   <si>
@@ -200,16 +200,16 @@
     <t>Quick 10 Bonus Jackpot</t>
   </si>
   <si>
+    <t>Maximum Black</t>
+  </si>
+  <si>
+    <t>$50 or $100</t>
+  </si>
+  <si>
+    <t>$100 $200 or $500</t>
+  </si>
+  <si>
     <t>Extreme Black</t>
-  </si>
-  <si>
-    <t>Maximum Black</t>
-  </si>
-  <si>
-    <t>$100 $200 or $500</t>
-  </si>
-  <si>
-    <t>$50 or $100</t>
   </si>
   <si>
     <t>20X</t>
@@ -619,7 +619,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -630,7 +630,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>967</v>
@@ -650,16 +650,16 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>999</v>
+        <v>950</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -670,16 +670,16 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -690,10 +690,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>950</v>
+        <v>978</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -710,16 +710,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>978</v>
+        <v>1003</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -730,7 +730,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>974</v>
@@ -747,10 +747,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
       </c>
       <c r="D10">
         <v>958</v>
@@ -767,10 +767,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>977</v>
@@ -787,10 +787,10 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12">
         <v>993</v>
@@ -807,16 +807,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>1002</v>
+        <v>1032</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -827,19 +827,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>1002</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
         <v>25</v>
-      </c>
-      <c r="D14">
-        <v>1032</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -847,16 +847,16 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
       </c>
       <c r="D15">
-        <v>998</v>
+        <v>970</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -867,19 +867,19 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16">
-        <v>970</v>
+        <v>998</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -887,7 +887,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -896,7 +896,7 @@
         <v>961</v>
       </c>
       <c r="E17">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -907,7 +907,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -927,7 +927,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
@@ -1076,7 +1076,7 @@
         <v>979</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1253,10 +1253,10 @@
         <v>49</v>
       </c>
       <c r="D35">
-        <v>968</v>
+        <v>994</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1273,10 +1273,10 @@
         <v>50</v>
       </c>
       <c r="D36">
-        <v>994</v>
+        <v>964</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1313,10 +1313,10 @@
         <v>52</v>
       </c>
       <c r="D38">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1473,7 +1473,7 @@
         <v>61</v>
       </c>
       <c r="D46">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -1493,10 +1493,10 @@
         <v>62</v>
       </c>
       <c r="D47">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>4384</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
@@ -1516,7 +1516,7 @@
         <v>1001</v>
       </c>
       <c r="E48">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -1533,10 +1533,10 @@
         <v>64</v>
       </c>
       <c r="D49">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E49">
-        <v>4668</v>
+        <v>2</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_WV.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_WV.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>STATE</t>
   </si>
@@ -41,36 +41,33 @@
     <t>$1.00 Games</t>
   </si>
   <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>2019-04-09</t>
+  </si>
+  <si>
     <t>Bonus Cash</t>
   </si>
   <si>
-    <t>2019-03-12</t>
+    <t>2019-04-11</t>
+  </si>
+  <si>
+    <t>Quick 6</t>
+  </si>
+  <si>
+    <t>GIMME 5</t>
+  </si>
+  <si>
+    <t>Big Cheese</t>
   </si>
   <si>
     <t>Veterans' Cash</t>
   </si>
   <si>
-    <t>Quick 6</t>
-  </si>
-  <si>
-    <t>Tic Tac Toe</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>2019-02-25</t>
-  </si>
-  <si>
     <t>SCARDEY CASH / SANTA PAWS</t>
   </si>
   <si>
-    <t>Big Cheese</t>
-  </si>
-  <si>
-    <t>2019-02-22</t>
-  </si>
-  <si>
     <t>3X</t>
   </si>
   <si>
@@ -83,33 +80,33 @@
     <t>LOS MUERTOS / CASHING SNOW</t>
   </si>
   <si>
+    <t>Keno Bullseye</t>
+  </si>
+  <si>
+    <t>10 Grand</t>
+  </si>
+  <si>
+    <t>2019-04-10</t>
+  </si>
+  <si>
+    <t>Classic Black</t>
+  </si>
+  <si>
+    <t>DOUBLE DEUCES</t>
+  </si>
+  <si>
+    <t>Bacon Love - Jack Cash</t>
+  </si>
+  <si>
     <t>Gem 7s</t>
   </si>
   <si>
-    <t>10 Grand</t>
-  </si>
-  <si>
-    <t>Bacon Love - Jack Cash</t>
-  </si>
-  <si>
-    <t>2019-03-07</t>
-  </si>
-  <si>
-    <t>Keno Bullseye</t>
-  </si>
-  <si>
-    <t>Classic Black</t>
-  </si>
-  <si>
     <t>Winner Winner Chicken Dinner</t>
   </si>
   <si>
     <t>5X</t>
   </si>
   <si>
-    <t>7s</t>
-  </si>
-  <si>
     <t>Red White &amp; Blue</t>
   </si>
   <si>
@@ -122,24 +119,21 @@
     <t>Clockwork Crossword</t>
   </si>
   <si>
+    <t>Winning Numbers</t>
+  </si>
+  <si>
+    <t>CASH CONNECT 1007</t>
+  </si>
+  <si>
+    <t>ROLLIN' BIG</t>
+  </si>
+  <si>
     <t>8 Ball Bingo</t>
   </si>
   <si>
-    <t>CASH CONNECT 1007</t>
-  </si>
-  <si>
-    <t>ROLLIN' BIG</t>
-  </si>
-  <si>
     <t>Hot Chili Crossword</t>
   </si>
   <si>
-    <t>Winning Numbers</t>
-  </si>
-  <si>
-    <t>2019-02-11</t>
-  </si>
-  <si>
     <t>Blingo</t>
   </si>
   <si>
@@ -149,33 +143,30 @@
     <t>Red &amp; Green Machine</t>
   </si>
   <si>
-    <t>Crack the Code</t>
+    <t>Mega Black</t>
+  </si>
+  <si>
+    <t>10X</t>
+  </si>
+  <si>
+    <t>Jumbo Jack</t>
   </si>
   <si>
     <t>Cash Squatch</t>
   </si>
   <si>
-    <t>10X</t>
-  </si>
-  <si>
-    <t>Mega Black</t>
+    <t>DELUXE CROSSWORD</t>
+  </si>
+  <si>
+    <t>PAC-MAN® &amp; Ms. PAC-MAN®</t>
+  </si>
+  <si>
+    <t>$40 GRAND</t>
   </si>
   <si>
     <t>VIVA LAS KENO 1005</t>
   </si>
   <si>
-    <t>Jumbo Jack</t>
-  </si>
-  <si>
-    <t>PAC-MAN® &amp; Ms. PAC-MAN®</t>
-  </si>
-  <si>
-    <t>Loaded</t>
-  </si>
-  <si>
-    <t>$40 GRAND</t>
-  </si>
-  <si>
     <t>More Money</t>
   </si>
   <si>
@@ -194,16 +185,16 @@
     <t>$10.00 Games</t>
   </si>
   <si>
+    <t>Quick 10 Bonus Jackpot</t>
+  </si>
+  <si>
+    <t>Maximum Black</t>
+  </si>
+  <si>
+    <t>$50 or $100</t>
+  </si>
+  <si>
     <t>Flawless Fortune</t>
-  </si>
-  <si>
-    <t>Quick 10 Bonus Jackpot</t>
-  </si>
-  <si>
-    <t>Maximum Black</t>
-  </si>
-  <si>
-    <t>$50 or $100</t>
   </si>
   <si>
     <t>$100 $200 or $500</t>
@@ -554,7 +545,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,10 +584,10 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>957</v>
+        <v>999</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -613,13 +604,13 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>990</v>
+        <v>957</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -630,16 +621,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>967</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -650,13 +641,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>950</v>
+        <v>1033</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -670,16 +661,16 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -693,7 +684,7 @@
         <v>15</v>
       </c>
       <c r="D7">
-        <v>978</v>
+        <v>990</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -713,13 +704,13 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <v>1003</v>
+        <v>978</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -730,7 +721,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>974</v>
@@ -739,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -747,10 +738,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
       </c>
       <c r="D10">
         <v>958</v>
@@ -759,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -767,10 +758,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>977</v>
@@ -779,7 +770,7 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -787,19 +778,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>993</v>
+        <v>970</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -807,10 +798,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13">
         <v>1032</v>
@@ -819,7 +810,7 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -827,19 +818,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
       </c>
       <c r="D14">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -847,19 +838,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>970</v>
+        <v>1010</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -867,19 +858,19 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -887,16 +878,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>961</v>
+        <v>993</v>
       </c>
       <c r="E17">
-        <v>161</v>
+        <v>3</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -907,19 +898,19 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>973</v>
+        <v>961</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -927,19 +918,19 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>940</v>
+        <v>973</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -947,10 +938,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20">
         <v>962</v>
@@ -959,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -967,10 +958,10 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
         <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
       </c>
       <c r="D21">
         <v>963</v>
@@ -979,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -987,10 +978,10 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>959</v>
@@ -999,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1007,19 +998,19 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23">
-        <v>989</v>
+        <v>966</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1027,10 +1018,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24">
         <v>1007</v>
@@ -1039,7 +1030,7 @@
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1047,10 +1038,10 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25">
         <v>992</v>
@@ -1059,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1067,19 +1058,19 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26">
-        <v>979</v>
+        <v>989</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1087,19 +1078,19 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27">
-        <v>966</v>
+        <v>979</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1107,10 +1098,10 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D28">
         <v>935</v>
@@ -1119,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1127,10 +1118,10 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D29">
         <v>976</v>
@@ -1139,7 +1130,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1147,19 +1138,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
         <v>42</v>
       </c>
-      <c r="C30" t="s">
-        <v>44</v>
-      </c>
       <c r="D30">
-        <v>942</v>
+        <v>997</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1167,19 +1158,19 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D31">
-        <v>1000</v>
+        <v>972</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1187,19 +1178,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D32">
-        <v>972</v>
+        <v>994</v>
       </c>
       <c r="E32">
         <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1207,19 +1198,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D33">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1227,19 +1218,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D34">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E34">
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1247,19 +1238,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D35">
-        <v>994</v>
+        <v>964</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1267,19 +1258,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D36">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1287,19 +1278,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D37">
-        <v>947</v>
+        <v>1005</v>
       </c>
       <c r="E37">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1307,19 +1298,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D38">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1327,19 +1318,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D39">
-        <v>960</v>
+        <v>931</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1347,19 +1338,19 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D40">
-        <v>931</v>
+        <v>955</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1367,19 +1358,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D41">
-        <v>955</v>
+        <v>969</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1387,19 +1378,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D42">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1407,19 +1398,19 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43">
-        <v>975</v>
+        <v>956</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1427,19 +1418,19 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D44">
-        <v>965</v>
+        <v>991</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1447,19 +1438,19 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" t="s">
         <v>58</v>
       </c>
-      <c r="C45" t="s">
-        <v>60</v>
-      </c>
       <c r="D45">
-        <v>956</v>
+        <v>995</v>
       </c>
       <c r="E45">
-        <v>5</v>
+        <v>2543</v>
       </c>
       <c r="F45" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1467,19 +1458,19 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D46">
-        <v>991</v>
+        <v>965</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1487,19 +1478,19 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D47">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="E47">
-        <v>4384</v>
+        <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1507,19 +1498,19 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D48">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="E48">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1527,19 +1518,19 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D49">
-        <v>996</v>
+        <v>971</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1547,39 +1538,19 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D50">
-        <v>971</v>
+        <v>949</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D51">
-        <v>949</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
